--- a/ArchivosRendimientos/PropiedadesFondos/PropiedadesFondos.xlsx
+++ b/ArchivosRendimientos/PropiedadesFondos/PropiedadesFondos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaguil\Desktop\Repositorios AM\AM_App_V2\ArchivosRendimientos\PropiedadesFondos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanpena/Desktop/AM_QUANT/AM_App_V2/ArchivosRendimientos/PropiedadesFondos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B5EBC9-0C19-4F87-B2C1-8EAF6622C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188098C-2007-8746-A953-5BE1B2663D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
   <si>
     <t>Fondo</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>Factor RF</t>
+  </si>
+  <si>
+    <t>TipoCalculo</t>
+  </si>
+  <si>
+    <t>FD0</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD7</t>
+  </si>
+  <si>
+    <t>FD8</t>
+  </si>
+  <si>
+    <t>FD14</t>
+  </si>
+  <si>
+    <t>F+</t>
+  </si>
+  <si>
+    <t>FP</t>
   </si>
 </sst>
 </file>
@@ -156,9 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +489,11 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -480,8 +509,11 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -497,8 +529,11 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -514,8 +549,11 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -531,8 +569,11 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -548,8 +589,11 @@
       <c r="E6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -565,8 +609,11 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -582,8 +629,11 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -596,8 +646,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -613,8 +669,11 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -627,8 +686,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -641,8 +706,14 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -655,8 +726,14 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -669,8 +746,14 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -683,8 +766,14 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -697,8 +786,14 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -711,8 +806,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -725,8 +826,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -739,8 +846,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -753,8 +866,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -770,8 +889,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -787,9 +909,429 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>2.6</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0.85</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>0.8</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0.8</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>0.8</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>0.8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ArchivosRendimientos/PropiedadesFondos/PropiedadesFondos.xlsx
+++ b/ArchivosRendimientos/PropiedadesFondos/PropiedadesFondos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanpena/Desktop/AM_QUANT/AM_App_V2/ArchivosRendimientos/PropiedadesFondos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaguil\Desktop\Repositorios AM\TestStreamlit\ArchivosRendimientos\PropiedadesFondos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188098C-2007-8746-A953-5BE1B2663D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB7C7F-D336-4091-9C30-CDD36CC522E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="5100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="42">
   <si>
     <t>Fondo</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>FP</t>
+  </si>
+  <si>
+    <t>CONFERENCE</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -513,7 +516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -533,7 +536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -553,7 +556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -573,7 +576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -593,7 +596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -613,7 +616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -633,7 +636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -653,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -673,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -693,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -713,7 +716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -733,7 +736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -753,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -793,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -813,7 +816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -833,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -853,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -873,7 +876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -893,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -913,7 +916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -933,7 +936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -953,7 +956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -973,7 +976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -993,7 +996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1331,6 +1334,426 @@
       </c>
       <c r="F43" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>0.75</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>0.75</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>0.75</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>0.85</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>0.7</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>0.6</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
